--- a/resources/experiment 2/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 2/metrics/MAPE/upto time/Edema macular diabético (UPTO).xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7893751996506929</v>
+        <v>7893751996506930</v>
       </c>
       <c r="C2" t="n">
         <v>7893751996506929</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148080688641289.5</v>
+        <v>2942555796670.181</v>
       </c>
       <c r="C3" t="n">
-        <v>148080698530386.8</v>
+        <v>2891072235705.228</v>
       </c>
       <c r="D3" t="n">
-        <v>148080698530386.8</v>
+        <v>318569518135916.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69320607511446.11</v>
+        <v>2868291126679.81</v>
       </c>
       <c r="C4" t="n">
-        <v>69166735554307.07</v>
+        <v>2826983785464.827</v>
       </c>
       <c r="D4" t="n">
-        <v>69166735554307.07</v>
+        <v>84324533490112.72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2179137785802863</v>
+        <v>414592087959714.8</v>
       </c>
       <c r="C5" t="n">
-        <v>2179137785802863</v>
+        <v>900214740170152.9</v>
       </c>
       <c r="D5" t="n">
-        <v>2179137785802863</v>
+        <v>2657507705113638</v>
       </c>
     </row>
   </sheetData>
